--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ptprc</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.320613452901691</v>
+        <v>0.9029196666666667</v>
       </c>
       <c r="H2">
-        <v>0.320613452901691</v>
+        <v>2.708759</v>
       </c>
       <c r="I2">
-        <v>0.001096538401035133</v>
+        <v>0.002816370292388754</v>
       </c>
       <c r="J2">
-        <v>0.001096538401035133</v>
+        <v>0.002824259036143102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.179585167619945</v>
+        <v>0.2524303333333334</v>
       </c>
       <c r="N2">
-        <v>0.179585167619945</v>
+        <v>0.757291</v>
       </c>
       <c r="O2">
-        <v>0.0003678407018920133</v>
+        <v>0.0004152138066912919</v>
       </c>
       <c r="P2">
-        <v>0.0003678407018920133</v>
+        <v>0.0004153435393530768</v>
       </c>
       <c r="Q2">
-        <v>0.05757742068055952</v>
+        <v>0.2279243124298889</v>
       </c>
       <c r="R2">
-        <v>0.05757742068055952</v>
+        <v>2.051318811869</v>
       </c>
       <c r="S2">
-        <v>4.033514550883094E-07</v>
+        <v>1.169395830155002E-06</v>
       </c>
       <c r="T2">
-        <v>4.033514550883094E-07</v>
+        <v>1.173037744121585E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.320613452901691</v>
+        <v>0.9029196666666667</v>
       </c>
       <c r="H3">
-        <v>0.320613452901691</v>
+        <v>2.708759</v>
       </c>
       <c r="I3">
-        <v>0.001096538401035133</v>
+        <v>0.002816370292388754</v>
       </c>
       <c r="J3">
-        <v>0.001096538401035133</v>
+        <v>0.002824259036143102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.251586353945863</v>
+        <v>0.3565143333333333</v>
       </c>
       <c r="N3">
-        <v>0.251586353945863</v>
+        <v>1.069543</v>
       </c>
       <c r="O3">
-        <v>0.0005153192897185608</v>
+        <v>0.0005864179297654724</v>
       </c>
       <c r="P3">
-        <v>0.0005153192897185608</v>
+        <v>0.0005866011547876679</v>
       </c>
       <c r="Q3">
-        <v>0.08066196964153011</v>
+        <v>0.3219038030152222</v>
       </c>
       <c r="R3">
-        <v>0.08066196964153011</v>
+        <v>2.897134227137</v>
       </c>
       <c r="S3">
-        <v>5.650673899705513E-07</v>
+        <v>1.651570036315591E-06</v>
       </c>
       <c r="T3">
-        <v>5.650673899705513E-07</v>
+        <v>1.65671361202105E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.320613452901691</v>
+        <v>0.9029196666666667</v>
       </c>
       <c r="H4">
-        <v>0.320613452901691</v>
+        <v>2.708759</v>
       </c>
       <c r="I4">
-        <v>0.001096538401035133</v>
+        <v>0.002816370292388754</v>
       </c>
       <c r="J4">
-        <v>0.001096538401035133</v>
+        <v>0.002824259036143102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>224.901679852093</v>
+        <v>343.6225723333334</v>
       </c>
       <c r="N4">
-        <v>224.901679852093</v>
+        <v>1030.867717</v>
       </c>
       <c r="O4">
-        <v>0.4606616062444728</v>
+        <v>0.5652127240000627</v>
       </c>
       <c r="P4">
-        <v>0.4606616062444728</v>
+        <v>0.5653893235012776</v>
       </c>
       <c r="Q4">
-        <v>72.10650414077021</v>
+        <v>310.2635784703559</v>
       </c>
       <c r="R4">
-        <v>72.10650414077021</v>
+        <v>2792.372206233204</v>
       </c>
       <c r="S4">
-        <v>0.0005051331411295905</v>
+        <v>0.001591848324753901</v>
       </c>
       <c r="T4">
-        <v>0.0005051331411295905</v>
+        <v>0.001596805905837319</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.320613452901691</v>
+        <v>0.9029196666666667</v>
       </c>
       <c r="H5">
-        <v>0.320613452901691</v>
+        <v>2.708759</v>
       </c>
       <c r="I5">
-        <v>0.001096538401035133</v>
+        <v>0.002816370292388754</v>
       </c>
       <c r="J5">
-        <v>0.001096538401035133</v>
+        <v>0.002824259036143102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>262.730760991491</v>
+        <v>263.1514486666667</v>
       </c>
       <c r="N5">
-        <v>262.730760991491</v>
+        <v>789.454346</v>
       </c>
       <c r="O5">
-        <v>0.538146155456769</v>
+        <v>0.432848593488691</v>
       </c>
       <c r="P5">
-        <v>0.538146155456769</v>
+        <v>0.4329838361017211</v>
       </c>
       <c r="Q5">
-        <v>84.23501646497085</v>
+        <v>237.6046183129571</v>
       </c>
       <c r="R5">
-        <v>84.23501646497085</v>
+        <v>2138.441564816614</v>
       </c>
       <c r="S5">
-        <v>0.0005900979248277699</v>
+        <v>0.001219061919803806</v>
       </c>
       <c r="T5">
-        <v>0.0005900979248277699</v>
+        <v>0.00122285851161419</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.320613452901691</v>
+        <v>0.9029196666666667</v>
       </c>
       <c r="H6">
-        <v>0.320613452901691</v>
+        <v>2.708759</v>
       </c>
       <c r="I6">
-        <v>0.001096538401035133</v>
+        <v>0.002816370292388754</v>
       </c>
       <c r="J6">
-        <v>0.001096538401035133</v>
+        <v>0.002824259036143102</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.150896513929249</v>
+        <v>0.5696825</v>
       </c>
       <c r="N6">
-        <v>0.150896513929249</v>
+        <v>1.139365</v>
       </c>
       <c r="O6">
-        <v>0.0003090783071476129</v>
+        <v>0.000937050774789659</v>
       </c>
       <c r="P6">
-        <v>0.0003090783071476129</v>
+        <v>0.0006248957028606154</v>
       </c>
       <c r="Q6">
-        <v>0.04837945236168464</v>
+        <v>0.5143775330058333</v>
       </c>
       <c r="R6">
-        <v>0.04837945236168464</v>
+        <v>3.086265198035</v>
       </c>
       <c r="S6">
-        <v>3.389162327142893E-07</v>
+        <v>2.639081964577461E-06</v>
       </c>
       <c r="T6">
-        <v>3.389162327142893E-07</v>
+        <v>1.764867335451088E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>102.491881552376</v>
+        <v>0.4807636666666666</v>
       </c>
       <c r="H7">
-        <v>102.491881552376</v>
+        <v>1.442291</v>
       </c>
       <c r="I7">
-        <v>0.3505351472291009</v>
+        <v>0.001499589120102478</v>
       </c>
       <c r="J7">
-        <v>0.3505351472291009</v>
+        <v>0.001503789517449825</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.179585167619945</v>
+        <v>0.2524303333333334</v>
       </c>
       <c r="N7">
-        <v>0.179585167619945</v>
+        <v>0.757291</v>
       </c>
       <c r="O7">
-        <v>0.0003678407018920133</v>
+        <v>0.0004152138066912919</v>
       </c>
       <c r="P7">
-        <v>0.0003678407018920133</v>
+        <v>0.0004153435393530768</v>
       </c>
       <c r="Q7">
-        <v>18.40602172826699</v>
+        <v>0.1213593326312222</v>
       </c>
       <c r="R7">
-        <v>18.40602172826699</v>
+        <v>1.092233993681</v>
       </c>
       <c r="S7">
-        <v>0.0001289410945945727</v>
+        <v>6.226501070305949E-07</v>
       </c>
       <c r="T7">
-        <v>0.0001289410945945727</v>
+        <v>6.245892606196659E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>102.491881552376</v>
+        <v>0.4807636666666666</v>
       </c>
       <c r="H8">
-        <v>102.491881552376</v>
+        <v>1.442291</v>
       </c>
       <c r="I8">
-        <v>0.3505351472291009</v>
+        <v>0.001499589120102478</v>
       </c>
       <c r="J8">
-        <v>0.3505351472291009</v>
+        <v>0.001503789517449825</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.251586353945863</v>
+        <v>0.3565143333333333</v>
       </c>
       <c r="N8">
-        <v>0.251586353945863</v>
+        <v>1.069543</v>
       </c>
       <c r="O8">
-        <v>0.0005153192897185608</v>
+        <v>0.0005864179297654724</v>
       </c>
       <c r="P8">
-        <v>0.0005153192897185608</v>
+        <v>0.0005866011547876679</v>
       </c>
       <c r="Q8">
-        <v>25.78555878881353</v>
+        <v>0.1713991381125556</v>
       </c>
       <c r="R8">
-        <v>25.78555878881353</v>
+        <v>1.542592243013</v>
       </c>
       <c r="S8">
-        <v>0.0001806375230914914</v>
+        <v>8.793859473093216E-07</v>
       </c>
       <c r="T8">
-        <v>0.0001806375230914914</v>
+        <v>8.821246674936574E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>102.491881552376</v>
+        <v>0.4807636666666666</v>
       </c>
       <c r="H9">
-        <v>102.491881552376</v>
+        <v>1.442291</v>
       </c>
       <c r="I9">
-        <v>0.3505351472291009</v>
+        <v>0.001499589120102478</v>
       </c>
       <c r="J9">
-        <v>0.3505351472291009</v>
+        <v>0.001503789517449825</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>224.901679852093</v>
+        <v>343.6225723333334</v>
       </c>
       <c r="N9">
-        <v>224.901679852093</v>
+        <v>1030.867717</v>
       </c>
       <c r="O9">
-        <v>0.4606616062444728</v>
+        <v>0.5652127240000627</v>
       </c>
       <c r="P9">
-        <v>0.4606616062444728</v>
+        <v>0.5653893235012776</v>
       </c>
       <c r="Q9">
-        <v>23050.5963323311</v>
+        <v>165.2012478244052</v>
       </c>
       <c r="R9">
-        <v>23050.5963323311</v>
+        <v>1486.811230419647</v>
       </c>
       <c r="S9">
-        <v>0.1614780839677004</v>
+        <v>0.0008475868514539788</v>
       </c>
       <c r="T9">
-        <v>0.1614780839677004</v>
+        <v>0.0008502265379592694</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>102.491881552376</v>
+        <v>0.4807636666666666</v>
       </c>
       <c r="H10">
-        <v>102.491881552376</v>
+        <v>1.442291</v>
       </c>
       <c r="I10">
-        <v>0.3505351472291009</v>
+        <v>0.001499589120102478</v>
       </c>
       <c r="J10">
-        <v>0.3505351472291009</v>
+        <v>0.001503789517449825</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>262.730760991491</v>
+        <v>263.1514486666667</v>
       </c>
       <c r="N10">
-        <v>262.730760991491</v>
+        <v>789.454346</v>
       </c>
       <c r="O10">
-        <v>0.538146155456769</v>
+        <v>0.432848593488691</v>
       </c>
       <c r="P10">
-        <v>0.538146155456769</v>
+        <v>0.4329838361017211</v>
       </c>
       <c r="Q10">
-        <v>26927.77003570551</v>
+        <v>126.5136553496318</v>
       </c>
       <c r="R10">
-        <v>26927.77003570551</v>
+        <v>1138.622898146686</v>
       </c>
       <c r="S10">
-        <v>0.1886391418338131</v>
+        <v>0.0006490950414473014</v>
       </c>
       <c r="T10">
-        <v>0.1886391418338131</v>
+        <v>0.0006511165539549815</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>102.491881552376</v>
+        <v>0.4807636666666666</v>
       </c>
       <c r="H11">
-        <v>102.491881552376</v>
+        <v>1.442291</v>
       </c>
       <c r="I11">
-        <v>0.3505351472291009</v>
+        <v>0.001499589120102478</v>
       </c>
       <c r="J11">
-        <v>0.3505351472291009</v>
+        <v>0.001503789517449825</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.150896513929249</v>
+        <v>0.5696825</v>
       </c>
       <c r="N11">
-        <v>0.150896513929249</v>
+        <v>1.139365</v>
       </c>
       <c r="O11">
-        <v>0.0003090783071476129</v>
+        <v>0.000937050774789659</v>
       </c>
       <c r="P11">
-        <v>0.0003090783071476129</v>
+        <v>0.0006248957028606154</v>
       </c>
       <c r="Q11">
-        <v>15.46566763230304</v>
+        <v>0.2738826475358333</v>
       </c>
       <c r="R11">
-        <v>15.46566763230304</v>
+        <v>1.643295885215</v>
       </c>
       <c r="S11">
-        <v>0.0001083428099013098</v>
+        <v>1.40519114685817E-06</v>
       </c>
       <c r="T11">
-        <v>0.0001083428099013098</v>
+        <v>9.397116074612343E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>188.635784167189</v>
+        <v>112.2249933333333</v>
       </c>
       <c r="H12">
-        <v>188.635784167189</v>
+        <v>336.67498</v>
       </c>
       <c r="I12">
-        <v>0.6451581469107062</v>
+        <v>0.3500501195796961</v>
       </c>
       <c r="J12">
-        <v>0.6451581469107062</v>
+        <v>0.3510306212211194</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.179585167619945</v>
+        <v>0.2524303333333334</v>
       </c>
       <c r="N12">
-        <v>0.179585167619945</v>
+        <v>0.757291</v>
       </c>
       <c r="O12">
-        <v>0.0003678407018920133</v>
+        <v>0.0004152138066912919</v>
       </c>
       <c r="P12">
-        <v>0.0003678407018920133</v>
+        <v>0.0004153435393530768</v>
       </c>
       <c r="Q12">
-        <v>33.87618891878441</v>
+        <v>28.32899247546445</v>
       </c>
       <c r="R12">
-        <v>33.87618891878441</v>
+        <v>254.96093227918</v>
       </c>
       <c r="S12">
-        <v>0.0002373154255909848</v>
+        <v>0.0001453456426834275</v>
       </c>
       <c r="T12">
-        <v>0.0002373154255909848</v>
+        <v>0.000145798300639289</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>188.635784167189</v>
+        <v>112.2249933333333</v>
       </c>
       <c r="H13">
-        <v>188.635784167189</v>
+        <v>336.67498</v>
       </c>
       <c r="I13">
-        <v>0.6451581469107062</v>
+        <v>0.3500501195796961</v>
       </c>
       <c r="J13">
-        <v>0.6451581469107062</v>
+        <v>0.3510306212211194</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.251586353945863</v>
+        <v>0.3565143333333333</v>
       </c>
       <c r="N13">
-        <v>0.251586353945863</v>
+        <v>1.069543</v>
       </c>
       <c r="O13">
-        <v>0.0005153192897185608</v>
+        <v>0.0005864179297654724</v>
       </c>
       <c r="P13">
-        <v>0.0005153192897185608</v>
+        <v>0.0005866011547876679</v>
       </c>
       <c r="Q13">
-        <v>47.45818916234183</v>
+        <v>40.00981868157111</v>
       </c>
       <c r="R13">
-        <v>47.45818916234183</v>
+        <v>360.08836813414</v>
       </c>
       <c r="S13">
-        <v>0.000332462438022168</v>
+        <v>0.0002052756664380814</v>
       </c>
       <c r="T13">
-        <v>0.000332462438022168</v>
+        <v>0.0002059149677741411</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>188.635784167189</v>
+        <v>112.2249933333333</v>
       </c>
       <c r="H14">
-        <v>188.635784167189</v>
+        <v>336.67498</v>
       </c>
       <c r="I14">
-        <v>0.6451581469107062</v>
+        <v>0.3500501195796961</v>
       </c>
       <c r="J14">
-        <v>0.6451581469107062</v>
+        <v>0.3510306212211194</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>224.901679852093</v>
+        <v>343.6225723333334</v>
       </c>
       <c r="N14">
-        <v>224.901679852093</v>
+        <v>1030.867717</v>
       </c>
       <c r="O14">
-        <v>0.4606616062444728</v>
+        <v>0.5652127240000627</v>
       </c>
       <c r="P14">
-        <v>0.4606616062444728</v>
+        <v>0.5653893235012776</v>
       </c>
       <c r="Q14">
-        <v>42424.50473941765</v>
+        <v>38563.04088929119</v>
       </c>
       <c r="R14">
-        <v>42424.50473941765</v>
+        <v>347067.3680036207</v>
       </c>
       <c r="S14">
-        <v>0.2971995882375935</v>
+        <v>0.1978527816241877</v>
       </c>
       <c r="T14">
-        <v>0.2971995882375935</v>
+        <v>0.1984689654604419</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>188.635784167189</v>
+        <v>112.2249933333333</v>
       </c>
       <c r="H15">
-        <v>188.635784167189</v>
+        <v>336.67498</v>
       </c>
       <c r="I15">
-        <v>0.6451581469107062</v>
+        <v>0.3500501195796961</v>
       </c>
       <c r="J15">
-        <v>0.6451581469107062</v>
+        <v>0.3510306212211194</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>262.730760991491</v>
+        <v>263.1514486666667</v>
       </c>
       <c r="N15">
-        <v>262.730760991491</v>
+        <v>789.454346</v>
       </c>
       <c r="O15">
-        <v>0.538146155456769</v>
+        <v>0.432848593488691</v>
       </c>
       <c r="P15">
-        <v>0.538146155456769</v>
+        <v>0.4329838361017211</v>
       </c>
       <c r="Q15">
-        <v>49560.42312447222</v>
+        <v>29532.16957227368</v>
       </c>
       <c r="R15">
-        <v>49560.42312447222</v>
+        <v>265789.5261504631</v>
       </c>
       <c r="S15">
-        <v>0.3471893764216099</v>
+        <v>0.1515187019106195</v>
       </c>
       <c r="T15">
-        <v>0.3471893764216099</v>
+        <v>0.1519905849654905</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>188.635784167189</v>
+        <v>112.2249933333333</v>
       </c>
       <c r="H16">
-        <v>188.635784167189</v>
+        <v>336.67498</v>
       </c>
       <c r="I16">
-        <v>0.6451581469107062</v>
+        <v>0.3500501195796961</v>
       </c>
       <c r="J16">
-        <v>0.6451581469107062</v>
+        <v>0.3510306212211194</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.150896513929249</v>
+        <v>0.5696825</v>
       </c>
       <c r="N16">
-        <v>0.150896513929249</v>
+        <v>1.139365</v>
       </c>
       <c r="O16">
-        <v>0.0003090783071476129</v>
+        <v>0.000937050774789659</v>
       </c>
       <c r="P16">
-        <v>0.0003090783071476129</v>
+        <v>0.0006248957028606154</v>
       </c>
       <c r="Q16">
-        <v>28.46448223313904</v>
+        <v>63.93261476461667</v>
       </c>
       <c r="R16">
-        <v>28.46448223313904</v>
+        <v>383.5956885877</v>
       </c>
       <c r="S16">
-        <v>0.000199404387889652</v>
+        <v>0.000328014735767367</v>
       </c>
       <c r="T16">
-        <v>0.000199404387889652</v>
+        <v>0.0002193575267735699</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.938610879930549</v>
+        <v>204.3017703333333</v>
       </c>
       <c r="H17">
-        <v>0.938610879930549</v>
+        <v>612.905311</v>
       </c>
       <c r="I17">
-        <v>0.003210167459157779</v>
+        <v>0.6372542961362345</v>
       </c>
       <c r="J17">
-        <v>0.003210167459157779</v>
+        <v>0.6390392659117509</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.179585167619945</v>
+        <v>0.2524303333333334</v>
       </c>
       <c r="N17">
-        <v>0.179585167619945</v>
+        <v>0.757291</v>
       </c>
       <c r="O17">
-        <v>0.0003678407018920133</v>
+        <v>0.0004152138066912919</v>
       </c>
       <c r="P17">
-        <v>0.0003678407018920133</v>
+        <v>0.0004153435393530768</v>
       </c>
       <c r="Q17">
-        <v>0.1685605922022317</v>
+        <v>51.57196398583346</v>
       </c>
       <c r="R17">
-        <v>0.1685605922022317</v>
+        <v>464.147675872501</v>
       </c>
       <c r="S17">
-        <v>1.180830251367499E-06</v>
+        <v>0.0002645967821291058</v>
       </c>
       <c r="T17">
-        <v>1.180830251367499E-06</v>
+        <v>0.0002654208304893786</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.938610879930549</v>
+        <v>204.3017703333333</v>
       </c>
       <c r="H18">
-        <v>0.938610879930549</v>
+        <v>612.905311</v>
       </c>
       <c r="I18">
-        <v>0.003210167459157779</v>
+        <v>0.6372542961362345</v>
       </c>
       <c r="J18">
-        <v>0.003210167459157779</v>
+        <v>0.6390392659117509</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.251586353945863</v>
+        <v>0.3565143333333333</v>
       </c>
       <c r="N18">
-        <v>0.251586353945863</v>
+        <v>1.069543</v>
       </c>
       <c r="O18">
-        <v>0.0005153192897185608</v>
+        <v>0.0005864179297654724</v>
       </c>
       <c r="P18">
-        <v>0.0005153192897185608</v>
+        <v>0.0005866011547876679</v>
       </c>
       <c r="Q18">
-        <v>0.236141689055645</v>
+        <v>72.83650944920811</v>
       </c>
       <c r="R18">
-        <v>0.236141689055645</v>
+        <v>655.5285850428729</v>
       </c>
       <c r="S18">
-        <v>1.654261214930824E-06</v>
+        <v>0.0003736973450743639</v>
       </c>
       <c r="T18">
-        <v>1.654261214930824E-06</v>
+        <v>0.0003748611713384967</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.938610879930549</v>
+        <v>204.3017703333333</v>
       </c>
       <c r="H19">
-        <v>0.938610879930549</v>
+        <v>612.905311</v>
       </c>
       <c r="I19">
-        <v>0.003210167459157779</v>
+        <v>0.6372542961362345</v>
       </c>
       <c r="J19">
-        <v>0.003210167459157779</v>
+        <v>0.6390392659117509</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>224.901679852093</v>
+        <v>343.6225723333334</v>
       </c>
       <c r="N19">
-        <v>224.901679852093</v>
+        <v>1030.867717</v>
       </c>
       <c r="O19">
-        <v>0.4606616062444728</v>
+        <v>0.5652127240000627</v>
       </c>
       <c r="P19">
-        <v>0.4606616062444728</v>
+        <v>0.5653893235012776</v>
       </c>
       <c r="Q19">
-        <v>211.0951636238316</v>
+        <v>70202.6998541939</v>
       </c>
       <c r="R19">
-        <v>211.0951636238316</v>
+        <v>631824.298687745</v>
       </c>
       <c r="S19">
-        <v>0.001478800898049361</v>
+        <v>0.3601842365999038</v>
       </c>
       <c r="T19">
-        <v>0.001478800898049361</v>
+        <v>0.3613059782445979</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.938610879930549</v>
+        <v>204.3017703333333</v>
       </c>
       <c r="H20">
-        <v>0.938610879930549</v>
+        <v>612.905311</v>
       </c>
       <c r="I20">
-        <v>0.003210167459157779</v>
+        <v>0.6372542961362345</v>
       </c>
       <c r="J20">
-        <v>0.003210167459157779</v>
+        <v>0.6390392659117509</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>262.730760991491</v>
+        <v>263.1514486666667</v>
       </c>
       <c r="N20">
-        <v>262.730760991491</v>
+        <v>789.454346</v>
       </c>
       <c r="O20">
-        <v>0.538146155456769</v>
+        <v>0.432848593488691</v>
       </c>
       <c r="P20">
-        <v>0.538146155456769</v>
+        <v>0.4329838361017211</v>
       </c>
       <c r="Q20">
-        <v>246.6019507590462</v>
+        <v>53762.30682838129</v>
       </c>
       <c r="R20">
-        <v>246.6019507590462</v>
+        <v>483860.7614554316</v>
       </c>
       <c r="S20">
-        <v>0.001727539276518184</v>
+        <v>0.2758346257771949</v>
       </c>
       <c r="T20">
-        <v>0.001727539276518184</v>
+        <v>0.2766936727740977</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>204.3017703333333</v>
+      </c>
+      <c r="H21">
+        <v>612.905311</v>
+      </c>
+      <c r="I21">
+        <v>0.6372542961362345</v>
+      </c>
+      <c r="J21">
+        <v>0.6390392659117509</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5696825</v>
+      </c>
+      <c r="N21">
+        <v>1.139365</v>
+      </c>
+      <c r="O21">
+        <v>0.000937050774789659</v>
+      </c>
+      <c r="P21">
+        <v>0.0006248957028606154</v>
+      </c>
+      <c r="Q21">
+        <v>116.3871432779192</v>
+      </c>
+      <c r="R21">
+        <v>698.322859667515</v>
+      </c>
+      <c r="S21">
+        <v>0.0005971396319324973</v>
+      </c>
+      <c r="T21">
+        <v>0.0003993328912274552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.686482</v>
+      </c>
+      <c r="H22">
+        <v>5.372964</v>
+      </c>
+      <c r="I22">
+        <v>0.00837962487157823</v>
+      </c>
+      <c r="J22">
+        <v>0.005602064313536785</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2524303333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.757291</v>
+      </c>
+      <c r="O22">
+        <v>0.0004152138066912919</v>
+      </c>
+      <c r="P22">
+        <v>0.0004153435393530768</v>
+      </c>
+      <c r="Q22">
+        <v>0.6781495467540001</v>
+      </c>
+      <c r="R22">
+        <v>4.068897280524</v>
+      </c>
+      <c r="S22">
+        <v>3.479335941573026E-06</v>
+      </c>
+      <c r="T22">
+        <v>2.326781219667933E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.686482</v>
+      </c>
+      <c r="H23">
+        <v>5.372964</v>
+      </c>
+      <c r="I23">
+        <v>0.00837962487157823</v>
+      </c>
+      <c r="J23">
+        <v>0.005602064313536785</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.3565143333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.069543</v>
+      </c>
+      <c r="O23">
+        <v>0.0005864179297654724</v>
+      </c>
+      <c r="P23">
+        <v>0.0005866011547876679</v>
+      </c>
+      <c r="Q23">
+        <v>0.9577693392419999</v>
+      </c>
+      <c r="R23">
+        <v>5.746616035451999</v>
+      </c>
+      <c r="S23">
+        <v>4.913962269402168E-06</v>
+      </c>
+      <c r="T23">
+        <v>3.286177395515462E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.686482</v>
+      </c>
+      <c r="H24">
+        <v>5.372964</v>
+      </c>
+      <c r="I24">
+        <v>0.00837962487157823</v>
+      </c>
+      <c r="J24">
+        <v>0.005602064313536785</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>343.6225723333334</v>
+      </c>
+      <c r="N24">
+        <v>1030.867717</v>
+      </c>
+      <c r="O24">
+        <v>0.5652127240000627</v>
+      </c>
+      <c r="P24">
+        <v>0.5653893235012776</v>
+      </c>
+      <c r="Q24">
+        <v>923.135855367198</v>
+      </c>
+      <c r="R24">
+        <v>5538.815132203188</v>
+      </c>
+      <c r="S24">
+        <v>0.004736270599763407</v>
+      </c>
+      <c r="T24">
+        <v>0.003167347352441212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.938610879930549</v>
-      </c>
-      <c r="H21">
-        <v>0.938610879930549</v>
-      </c>
-      <c r="I21">
-        <v>0.003210167459157779</v>
-      </c>
-      <c r="J21">
-        <v>0.003210167459157779</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.150896513929249</v>
-      </c>
-      <c r="N21">
-        <v>0.150896513929249</v>
-      </c>
-      <c r="O21">
-        <v>0.0003090783071476129</v>
-      </c>
-      <c r="P21">
-        <v>0.0003090783071476129</v>
-      </c>
-      <c r="Q21">
-        <v>0.1416331097175847</v>
-      </c>
-      <c r="R21">
-        <v>0.1416331097175847</v>
-      </c>
-      <c r="S21">
-        <v>9.921931239368402E-07</v>
-      </c>
-      <c r="T21">
-        <v>9.921931239368402E-07</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.686482</v>
+      </c>
+      <c r="H25">
+        <v>5.372964</v>
+      </c>
+      <c r="I25">
+        <v>0.00837962487157823</v>
+      </c>
+      <c r="J25">
+        <v>0.005602064313536785</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>263.1514486666667</v>
+      </c>
+      <c r="N25">
+        <v>789.454346</v>
+      </c>
+      <c r="O25">
+        <v>0.432848593488691</v>
+      </c>
+      <c r="P25">
+        <v>0.4329838361017211</v>
+      </c>
+      <c r="Q25">
+        <v>706.951630116924</v>
+      </c>
+      <c r="R25">
+        <v>4241.709780701543</v>
+      </c>
+      <c r="S25">
+        <v>0.00362710883962549</v>
+      </c>
+      <c r="T25">
+        <v>0.002425603296563712</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.686482</v>
+      </c>
+      <c r="H26">
+        <v>5.372964</v>
+      </c>
+      <c r="I26">
+        <v>0.00837962487157823</v>
+      </c>
+      <c r="J26">
+        <v>0.005602064313536785</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5696825</v>
+      </c>
+      <c r="N26">
+        <v>1.139365</v>
+      </c>
+      <c r="O26">
+        <v>0.000937050774789659</v>
+      </c>
+      <c r="P26">
+        <v>0.0006248957028606154</v>
+      </c>
+      <c r="Q26">
+        <v>1.530441781965</v>
+      </c>
+      <c r="R26">
+        <v>6.121767127859999</v>
+      </c>
+      <c r="S26">
+        <v>7.852133978359078E-06</v>
+      </c>
+      <c r="T26">
+        <v>3.50070591667794E-06</v>
       </c>
     </row>
   </sheetData>
